--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.664368333333333</v>
+        <v>1.017537666666667</v>
       </c>
       <c r="H2">
-        <v>10.993105</v>
+        <v>3.052613</v>
       </c>
       <c r="I2">
-        <v>0.01377800822483461</v>
+        <v>0.004254718784795717</v>
       </c>
       <c r="J2">
-        <v>0.01377800822483461</v>
+        <v>0.004254718784795717</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N2">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q2">
-        <v>1.012507721463889</v>
+        <v>0.1441789821406667</v>
       </c>
       <c r="R2">
-        <v>9.112569493175</v>
+        <v>1.297610839266</v>
       </c>
       <c r="S2">
-        <v>0.0002870107196686268</v>
+        <v>7.504447307789284E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002870107196686268</v>
+        <v>7.504447307789283E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.664368333333333</v>
+        <v>1.017537666666667</v>
       </c>
       <c r="H3">
-        <v>10.993105</v>
+        <v>3.052613</v>
       </c>
       <c r="I3">
-        <v>0.01377800822483461</v>
+        <v>0.004254718784795717</v>
       </c>
       <c r="J3">
-        <v>0.01377800822483461</v>
+        <v>0.004254718784795717</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q3">
-        <v>7.991248354052777</v>
+        <v>2.219044447570556</v>
       </c>
       <c r="R3">
-        <v>71.921235186475</v>
+        <v>19.971400028135</v>
       </c>
       <c r="S3">
-        <v>0.002265240938440801</v>
+        <v>0.00115500205946721</v>
       </c>
       <c r="T3">
-        <v>0.002265240938440801</v>
+        <v>0.00115500205946721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.664368333333333</v>
+        <v>1.017537666666667</v>
       </c>
       <c r="H4">
-        <v>10.993105</v>
+        <v>3.052613</v>
       </c>
       <c r="I4">
-        <v>0.01377800822483461</v>
+        <v>0.004254718784795717</v>
       </c>
       <c r="J4">
-        <v>0.01377800822483461</v>
+        <v>0.004254718784795717</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N4">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q4">
-        <v>39.60188391641334</v>
+        <v>5.811143029626778</v>
       </c>
       <c r="R4">
-        <v>356.41695524772</v>
+        <v>52.30028726664101</v>
       </c>
       <c r="S4">
-        <v>0.01122575656672519</v>
+        <v>0.003024672252250615</v>
       </c>
       <c r="T4">
-        <v>0.01122575656672519</v>
+        <v>0.003024672252250614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>656.856812</v>
       </c>
       <c r="I5">
-        <v>0.8232595393453117</v>
+        <v>0.9155241810663287</v>
       </c>
       <c r="J5">
-        <v>0.8232595393453117</v>
+        <v>0.9155241810663287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N5">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q5">
-        <v>60.49906682835778</v>
+        <v>31.02422303984266</v>
       </c>
       <c r="R5">
-        <v>544.49160145522</v>
+        <v>279.218007358584</v>
       </c>
       <c r="S5">
-        <v>0.01714938102850467</v>
+        <v>0.0161479602373981</v>
       </c>
       <c r="T5">
-        <v>0.01714938102850467</v>
+        <v>0.01614796023739809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>656.856812</v>
       </c>
       <c r="I6">
-        <v>0.8232595393453117</v>
+        <v>0.9155241810663287</v>
       </c>
       <c r="J6">
-        <v>0.8232595393453117</v>
+        <v>0.9155241810663287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.542395</v>
       </c>
       <c r="O6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q6">
         <v>477.4907469494155</v>
@@ -818,10 +818,10 @@
         <v>4297.41672254474</v>
       </c>
       <c r="S6">
-        <v>0.1353520175815761</v>
+        <v>0.2485316581679585</v>
       </c>
       <c r="T6">
-        <v>0.1353520175815761</v>
+        <v>0.2485316581679584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>656.856812</v>
       </c>
       <c r="I7">
-        <v>0.8232595393453117</v>
+        <v>0.9155241810663287</v>
       </c>
       <c r="J7">
-        <v>0.8232595393453117</v>
+        <v>0.9155241810663287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N7">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q7">
-        <v>2366.280247348619</v>
+        <v>1250.433279461454</v>
       </c>
       <c r="R7">
-        <v>21296.52222613757</v>
+        <v>11253.89951515309</v>
       </c>
       <c r="S7">
-        <v>0.6707581407352309</v>
+        <v>0.6508445626609723</v>
       </c>
       <c r="T7">
-        <v>0.6707581407352309</v>
+        <v>0.6508445626609722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.34113033333333</v>
+        <v>19.18528466666666</v>
       </c>
       <c r="H8">
-        <v>130.023391</v>
+        <v>57.555854</v>
       </c>
       <c r="I8">
-        <v>0.1629624524298537</v>
+        <v>0.08022110014887562</v>
       </c>
       <c r="J8">
-        <v>0.1629624524298537</v>
+        <v>0.08022110014887564</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N8">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q8">
-        <v>11.97565995762056</v>
+        <v>2.718439725558666</v>
       </c>
       <c r="R8">
-        <v>107.780939618585</v>
+        <v>24.465957530028</v>
       </c>
       <c r="S8">
-        <v>0.003394683033107138</v>
+        <v>0.00141493492164848</v>
       </c>
       <c r="T8">
-        <v>0.003394683033107139</v>
+        <v>0.001414934921648479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.34113033333333</v>
+        <v>19.18528466666666</v>
       </c>
       <c r="H9">
-        <v>130.023391</v>
+        <v>57.555854</v>
       </c>
       <c r="I9">
-        <v>0.1629624524298537</v>
+        <v>0.08022110014887562</v>
       </c>
       <c r="J9">
-        <v>0.1629624524298537</v>
+        <v>0.08022110014887564</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.542395</v>
       </c>
       <c r="O9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q9">
-        <v>94.51826479571611</v>
+        <v>41.83923682559222</v>
       </c>
       <c r="R9">
-        <v>850.664383161445</v>
+        <v>376.55313143033</v>
       </c>
       <c r="S9">
-        <v>0.02679264031846281</v>
+        <v>0.02177712337082822</v>
       </c>
       <c r="T9">
-        <v>0.02679264031846282</v>
+        <v>0.02177712337082822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.34113033333333</v>
+        <v>19.18528466666666</v>
       </c>
       <c r="H10">
-        <v>130.023391</v>
+        <v>57.555854</v>
       </c>
       <c r="I10">
-        <v>0.1629624524298537</v>
+        <v>0.08022110014887562</v>
       </c>
       <c r="J10">
-        <v>0.1629624524298537</v>
+        <v>0.08022110014887564</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N10">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q10">
-        <v>468.4000777578693</v>
+        <v>109.5668857422531</v>
       </c>
       <c r="R10">
-        <v>4215.600699820824</v>
+        <v>986.101971680278</v>
       </c>
       <c r="S10">
-        <v>0.1327751290782837</v>
+        <v>0.05702904185639893</v>
       </c>
       <c r="T10">
-        <v>0.1327751290782838</v>
+        <v>0.05702904185639893</v>
       </c>
     </row>
   </sheetData>
